--- a/outer/CollaborativeFiltering/data/test_data.xlsx
+++ b/outer/CollaborativeFiltering/data/test_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="user_data" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
@@ -495,7 +495,7 @@
   <dimension ref="A1:BI60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5199,7 +5199,7 @@
   <dimension ref="A1:BH30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:BH30"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
